--- a/HTML/111/Freelancer.xlsx
+++ b/HTML/111/Freelancer.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5B0526-DD51-4C2C-97BB-F05D0925DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8159021-0F5A-4BDD-AAAF-D0542AE7B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Freelancers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>محمود خالد</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>عربي</t>
+  </si>
+  <si>
+    <t>Mounis Firwana</t>
+  </si>
+  <si>
+    <t>Learn With Marie TIKTOK</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>Scribie</t>
+  </si>
+  <si>
+    <t>Happy Scribe</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Go Transcript</t>
+  </si>
+  <si>
+    <t>أبو العباقره</t>
   </si>
 </sst>
 </file>
@@ -132,13 +156,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,6 +165,13 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,18 +225,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -224,10 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +558,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -575,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -608,47 +629,55 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -670,8 +699,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="8"/>
@@ -682,35 +711,64 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{65898800-686D-4AAB-82F8-4E09293F52C5}"/>
@@ -723,17 +781,25 @@
     <hyperlink ref="G3" r:id="rId8" display="https://99designs.com/" xr:uid="{1523E88B-C2FC-4837-9D76-D1BF18DEDCB5}"/>
     <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{71558815-AF08-4EE7-BB26-4E88944AC6C9}"/>
     <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{3507F7C2-D3DC-4364-A90B-66DAC3BCAE44}"/>
-    <hyperlink ref="G1" location="Jobs!A1" display="Back &lt;--" xr:uid="{1268D2BF-C9E8-4356-8CD0-FBDBCEC24FD9}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{2E68C865-6273-467C-AF06-3CBDF55C93EA}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{883098C2-C304-4529-B899-4D51923601E9}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{C6E820A2-4227-4199-ABB9-8E865350D4C4}"/>
-    <hyperlink ref="A3" r:id="rId14" xr:uid="{FC6B5EE8-EF90-4950-80EC-D15A45D396CA}"/>
-    <hyperlink ref="A8" r:id="rId15" xr:uid="{B0AE6D7F-6D74-444E-BFA8-4D61F5C89AA6}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{91E9E891-82BE-490F-B1B9-45095C7F4AEB}"/>
-    <hyperlink ref="A14" r:id="rId17" display="Learn With Marie" xr:uid="{CD6CEECF-0A42-450E-842A-1FE208661555}"/>
-    <hyperlink ref="A15" r:id="rId18" xr:uid="{BD60E8F0-D8E7-4455-BA89-B422D93E31B7}"/>
-    <hyperlink ref="B14" r:id="rId19" display="فكرة - صهيب الدسوقي" xr:uid="{92D6BEB9-A995-4380-8339-CEDE7F279218}"/>
+    <hyperlink ref="G1" r:id="rId11" xr:uid="{1268D2BF-C9E8-4356-8CD0-FBDBCEC24FD9}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{2E68C865-6273-467C-AF06-3CBDF55C93EA}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{883098C2-C304-4529-B899-4D51923601E9}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{C6E820A2-4227-4199-ABB9-8E865350D4C4}"/>
+    <hyperlink ref="A3" r:id="rId15" xr:uid="{FC6B5EE8-EF90-4950-80EC-D15A45D396CA}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{B0AE6D7F-6D74-444E-BFA8-4D61F5C89AA6}"/>
+    <hyperlink ref="B3" r:id="rId17" xr:uid="{91E9E891-82BE-490F-B1B9-45095C7F4AEB}"/>
+    <hyperlink ref="A14" r:id="rId18" display="Learn With Marie" xr:uid="{CD6CEECF-0A42-450E-842A-1FE208661555}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{BD60E8F0-D8E7-4455-BA89-B422D93E31B7}"/>
+    <hyperlink ref="C14" r:id="rId20" display="فكرة - صهيب الدسوقي" xr:uid="{92D6BEB9-A995-4380-8339-CEDE7F279218}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{D0D7270B-6B9F-4824-932C-B6981F55B743}"/>
+    <hyperlink ref="A15" r:id="rId22" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{C013B9C1-7934-4283-AD8B-90A4B42EFF48}"/>
+    <hyperlink ref="B8" r:id="rId23" xr:uid="{A0CEE9AC-F8D6-47F5-86AF-523F283BB445}"/>
+    <hyperlink ref="A8" r:id="rId24" xr:uid="{018180A0-C73F-4A57-BFE8-4106C6DF7072}"/>
+    <hyperlink ref="D8" r:id="rId25" xr:uid="{B56278D8-6B7A-4CFB-87B0-981FE8A0E3B6}"/>
+    <hyperlink ref="C8" r:id="rId26" xr:uid="{B3FDE84A-DBA9-4E5C-BA5B-4A3ECB198B9E}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{BD604C49-9836-4050-B0E2-EB866D71A3F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/HTML/111/Freelancer.xlsx
+++ b/HTML/111/Freelancer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8159021-0F5A-4BDD-AAAF-D0542AE7B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE088D-589A-43E9-8C8E-648C7B51AE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>محمود خالد</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>أبو العباقره</t>
+  </si>
+  <si>
+    <t>وليد طه</t>
+  </si>
+  <si>
+    <t>Upwork Egypt</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,6 +256,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,15 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="28" style="1"/>
+    <col min="1" max="5" width="28" style="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -557,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
@@ -576,8 +590,8 @@
         <v>12</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -588,15 +602,15 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -604,8 +618,8 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -617,8 +631,8 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -626,10 +640,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -639,8 +653,8 @@
         <v>26</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -656,8 +670,8 @@
         <v>29</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -665,10 +679,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -676,8 +690,8 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -687,8 +701,8 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -696,10 +710,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -707,15 +721,15 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -724,23 +738,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -748,8 +764,8 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -758,27 +774,55 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{65898800-686D-4AAB-82F8-4E09293F52C5}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{1442C51B-8889-428A-A65F-3351B18ECD17}"/>
     <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{798D7116-F141-4675-B2EC-BFAA0460BC22}"/>
     <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{7C0576BF-C85C-47E8-8033-C5A50A11BF51}"/>
-    <hyperlink ref="F3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{C4DC2243-1442-4AE1-8FB7-C64F689B334E}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{C4DC2243-1442-4AE1-8FB7-C64F689B334E}"/>
     <hyperlink ref="A11" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{DFC132F7-9E20-4EAB-9480-48C0306F7084}"/>
     <hyperlink ref="A5" r:id="rId7" display="https://khamsat.com/" xr:uid="{28F2C956-C137-4AA2-B2FA-023296749F43}"/>
-    <hyperlink ref="G3" r:id="rId8" display="https://99designs.com/" xr:uid="{1523E88B-C2FC-4837-9D76-D1BF18DEDCB5}"/>
+    <hyperlink ref="E17" r:id="rId8" display="https://99designs.com/" xr:uid="{1523E88B-C2FC-4837-9D76-D1BF18DEDCB5}"/>
     <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{71558815-AF08-4EE7-BB26-4E88944AC6C9}"/>
     <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{3507F7C2-D3DC-4364-A90B-66DAC3BCAE44}"/>
     <hyperlink ref="G1" r:id="rId11" xr:uid="{1268D2BF-C9E8-4356-8CD0-FBDBCEC24FD9}"/>
@@ -791,15 +835,17 @@
     <hyperlink ref="A14" r:id="rId18" display="Learn With Marie" xr:uid="{CD6CEECF-0A42-450E-842A-1FE208661555}"/>
     <hyperlink ref="D14" r:id="rId19" xr:uid="{BD60E8F0-D8E7-4455-BA89-B422D93E31B7}"/>
     <hyperlink ref="C14" r:id="rId20" display="فكرة - صهيب الدسوقي" xr:uid="{92D6BEB9-A995-4380-8339-CEDE7F279218}"/>
-    <hyperlink ref="B14" r:id="rId21" xr:uid="{D0D7270B-6B9F-4824-932C-B6981F55B743}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{D0D7270B-6B9F-4824-932C-B6981F55B743}"/>
     <hyperlink ref="A15" r:id="rId22" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{C013B9C1-7934-4283-AD8B-90A4B42EFF48}"/>
     <hyperlink ref="B8" r:id="rId23" xr:uid="{A0CEE9AC-F8D6-47F5-86AF-523F283BB445}"/>
     <hyperlink ref="A8" r:id="rId24" xr:uid="{018180A0-C73F-4A57-BFE8-4106C6DF7072}"/>
     <hyperlink ref="D8" r:id="rId25" xr:uid="{B56278D8-6B7A-4CFB-87B0-981FE8A0E3B6}"/>
     <hyperlink ref="C8" r:id="rId26" xr:uid="{B3FDE84A-DBA9-4E5C-BA5B-4A3ECB198B9E}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{BD604C49-9836-4050-B0E2-EB866D71A3F3}"/>
+    <hyperlink ref="E15" r:id="rId27" xr:uid="{BD604C49-9836-4050-B0E2-EB866D71A3F3}"/>
+    <hyperlink ref="B14" r:id="rId28" xr:uid="{34651C19-82C5-44EC-9435-F4FC31867256}"/>
+    <hyperlink ref="G3" r:id="rId29" xr:uid="{E6AF1B77-3E2A-48B7-9757-B99A7A79B900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>